--- a/設計/地圖.xlsx
+++ b/設計/地圖.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/674416862f0b68f3/資訊專題報告/設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDFC1895-626D-42D5-A148-A81739E67600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{EDFC1895-626D-42D5-A148-A81739E67600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC9056C8-7A51-4D37-9657-FC21FF722CD9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CEFE2560-508F-4DB2-9B68-CE0E8153F8C4}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="38730" windowHeight="21210" xr2:uid="{CEFE2560-508F-4DB2-9B68-CE0E8153F8C4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,54 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>鵝卵石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>" - " = 可穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abyssosque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一關</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,8 +97,24 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,6 +139,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -93,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -107,6 +174,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,150 +872,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>26275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>26275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>348154</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>328448</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矩形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752011E1-F387-743F-893C-ACC949261065}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="400706" y="380999"/>
-          <a:ext cx="1070741" cy="1011621"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent4">
-                <a:lumMod val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="48000">
-              <a:schemeClr val="accent4">
-                <a:lumMod val="97000"/>
-                <a:lumOff val="3000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>216777</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>13137</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>170793</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>341586</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="矩形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84BA468-5B57-450E-C89C-72EC9EC05D29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8454260" y="3560378"/>
-          <a:ext cx="328447" cy="328449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>170793</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -976,6 +914,486 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>48940</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>40072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>331405</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>329106</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA779004-76FD-BF0E-E82A-D38E7A781971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48940" y="7088572"/>
+          <a:ext cx="282465" cy="641459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>69302</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>24634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>279509</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>311369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146A5DE6-6ED3-1AF2-B0E6-DE1C71682824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="69302" y="8482834"/>
+          <a:ext cx="581682" cy="639160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>39415</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>49597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>321880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>338631</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CAD9D6-C2E6-6012-0206-5013D8C679F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13041040" y="2516572"/>
+          <a:ext cx="282465" cy="641459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>241957</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>339834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E909BF0-9408-4066-B798-3E9DD990754F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14643100" y="4318000"/>
+          <a:ext cx="584857" cy="644634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>327682</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>339834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B6D852-95C3-48B9-AF4E-9CF35748C322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15103475" y="4321175"/>
+          <a:ext cx="584857" cy="641459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>245132</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>333484</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A2103A-77BA-6F1B-EE8B-DC494B046884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16144875" y="4314825"/>
+          <a:ext cx="584857" cy="641459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>327682</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>333484</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73465CD4-C87A-C237-1B46-6F26C8155180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16602075" y="4314825"/>
+          <a:ext cx="584857" cy="641459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>368958</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>333484</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矩形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C368F882-4BB7-6ECB-DD8C-64AE889F2342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19697701" y="2495550"/>
+          <a:ext cx="1473857" cy="2419459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1292,15 +1710,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BC89EE-B72D-4DA9-B9D4-B89B39D62715}">
-  <dimension ref="A1:AF20"/>
+  <dimension ref="A1:BN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1333,20 +1751,149 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-    </row>
-    <row r="2" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+    </row>
+    <row r="2" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="AA2" s="4"/>
-    </row>
-    <row r="3" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF2" s="7"/>
+      <c r="AI2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="7"/>
+    </row>
+    <row r="3" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="AA3" s="4"/>
-    </row>
-    <row r="4" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF3" s="7"/>
+      <c r="AI3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="7"/>
+    </row>
+    <row r="4" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="AA4" s="4"/>
-    </row>
-    <row r="5" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF4" s="7"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="7"/>
+    </row>
+    <row r="5" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="J5" s="2"/>
       <c r="K5" s="1"/>
@@ -1364,8 +1911,41 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF5" s="7"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="7"/>
+    </row>
+    <row r="6" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1374,8 +1954,41 @@
       <c r="K6" s="1"/>
       <c r="L6" s="4"/>
       <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF6" s="7"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="7"/>
+    </row>
+    <row r="7" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -1385,8 +1998,38 @@
       <c r="K7" s="1"/>
       <c r="L7" s="4"/>
       <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF7" s="7"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="7"/>
+    </row>
+    <row r="8" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1410,15 +2053,72 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="4"/>
       <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI8" s="1"/>
+      <c r="AK8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="1"/>
+    </row>
+    <row r="9" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="L9" s="4"/>
-      <c r="AE9" s="1"/>
+      <c r="AE9" s="9"/>
       <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="3"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="1"/>
+    </row>
+    <row r="10" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1426,8 +2126,40 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-    </row>
-    <row r="11" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="1"/>
+    </row>
+    <row r="11" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1437,8 +2169,39 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-    </row>
-    <row r="12" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="2"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="1"/>
+    </row>
+    <row r="12" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="4"/>
@@ -1460,8 +2223,38 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-    </row>
-    <row r="13" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="1"/>
+    </row>
+    <row r="13" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1483,8 +2276,38 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-    </row>
-    <row r="14" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="2"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="1"/>
+    </row>
+    <row r="14" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1507,8 +2330,38 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-    </row>
-    <row r="15" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="2"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="1"/>
+    </row>
+    <row r="15" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1539,33 +2392,135 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
+      <c r="AE15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AF15" s="1"/>
-    </row>
-    <row r="17" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17">
+        <v>-5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>-4</v>
       </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C25:D26"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/設計/地圖.xlsx
+++ b/設計/地圖.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/674416862f0b68f3/資訊專題報告/設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{EDFC1895-626D-42D5-A148-A81739E67600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC9056C8-7A51-4D37-9657-FC21FF722CD9}"/>
+  <xr:revisionPtr revIDLastSave="755" documentId="8_{EDFC1895-626D-42D5-A148-A81739E67600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5CD61C7-363B-479C-A769-EB43F159D99B}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="38730" windowHeight="21210" xr2:uid="{CEFE2560-508F-4DB2-9B68-CE0E8153F8C4}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{CEFE2560-508F-4DB2-9B68-CE0E8153F8C4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +145,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -160,7 +166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,9 +183,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -190,6 +193,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,22 +1068,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>39415</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>49597</xdr:rowOff>
+      <xdr:colOff>46743</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>321880</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>338631</xdr:rowOff>
+      <xdr:colOff>329208</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>317607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="矩形 20">
+        <xdr:cNvPr id="26" name="矩形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CAD9D6-C2E6-6012-0206-5013D8C679F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8059C1-B96F-4312-B438-8CB971C5E8F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,8 +1091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13041040" y="2516572"/>
-          <a:ext cx="282465" cy="641459"/>
+          <a:off x="13125301" y="9875957"/>
+          <a:ext cx="282465" cy="640727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1112,23 +1127,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>241957</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>339834</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>329105</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="矩形 21">
+        <xdr:cNvPr id="33" name="矩形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E909BF0-9408-4066-B798-3E9DD990754F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3583CF8A-9E8B-449B-8E1B-A786E97D9A74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,8 +1151,68 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14643100" y="4318000"/>
-          <a:ext cx="584857" cy="644634"/>
+          <a:off x="21697950" y="1400175"/>
+          <a:ext cx="76200" cy="691055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>52211</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>262418</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>332779</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA0976F-0793-07E5-5263-204D517FADA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14636044" y="4277078"/>
+          <a:ext cx="584152" cy="641812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1173,22 +1248,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>117475</xdr:colOff>
+      <xdr:colOff>134761</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:rowOff>43745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>327682</xdr:colOff>
+      <xdr:colOff>341793</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>339834</xdr:rowOff>
+      <xdr:rowOff>332779</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="矩形 22">
+        <xdr:cNvPr id="35" name="矩形 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B6D852-95C3-48B9-AF4E-9CF35748C322}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61369973-F77B-96F9-1696-375878DA7441}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,8 +1271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15103475" y="4321175"/>
-          <a:ext cx="584857" cy="641459"/>
+          <a:off x="15092539" y="4277078"/>
+          <a:ext cx="580976" cy="641812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1233,22 +1308,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
+      <xdr:colOff>48331</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>39865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>245132</xdr:colOff>
+      <xdr:colOff>255363</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>333484</xdr:rowOff>
+      <xdr:rowOff>328899</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="矩形 23">
+        <xdr:cNvPr id="36" name="矩形 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A2103A-77BA-6F1B-EE8B-DC494B046884}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837322C5-DBBC-0833-857F-247820027F00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,8 +1331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16144875" y="4314825"/>
-          <a:ext cx="584857" cy="641459"/>
+          <a:off x="16127942" y="4273198"/>
+          <a:ext cx="580977" cy="641812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1293,22 +1368,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>117475</xdr:colOff>
+      <xdr:colOff>130881</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>39865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>327682</xdr:colOff>
+      <xdr:colOff>337913</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>333484</xdr:rowOff>
+      <xdr:rowOff>332074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="矩形 24">
+        <xdr:cNvPr id="37" name="矩形 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73465CD4-C87A-C237-1B46-6F26C8155180}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC68D334-EB6C-1907-925F-CC76B442DAEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,8 +1391,437 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16602075" y="4314825"/>
-          <a:ext cx="584857" cy="641459"/>
+          <a:off x="16584437" y="4273198"/>
+          <a:ext cx="580976" cy="644987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>89788</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>296334</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C69E227-5E05-DD06-3353-54B838775C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15795455" y="2538310"/>
+          <a:ext cx="580490" cy="636690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>354020</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>64985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>186621</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>345723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE4EF51-00DE-9712-7205-8517002DBA35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17555464" y="770541"/>
+          <a:ext cx="580490" cy="633515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>70736</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>274108</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>317147</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207F724D-2D37-CA47-E834-33A82D29B5F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21759514" y="3220935"/>
+          <a:ext cx="577316" cy="623990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>98779</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>64206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>308986</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB09113-CEEF-E607-D514-C8389100FF1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21039668" y="4297539"/>
+          <a:ext cx="584151" cy="644987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>77613</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>287820</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>342304</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B811E2-060C-7253-2F63-34FBC285FB9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22514280" y="4283428"/>
+          <a:ext cx="584151" cy="644987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>349700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="矩形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A6F863-12ED-437A-A7D6-9A72AC3B651E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36673117" y="4385235"/>
+          <a:ext cx="282465" cy="644447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>48331</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>255363</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>319374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CF863A-27D4-4802-F2E2-B137FE68469B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31252231" y="4259440"/>
+          <a:ext cx="578507" cy="641459"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1352,23 +1856,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>130881</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>368958</xdr:colOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>337913</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>333484</xdr:rowOff>
+      <xdr:rowOff>322549</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="矩形 28">
+        <xdr:cNvPr id="44" name="矩形 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C368F882-4BB7-6ECB-DD8C-64AE889F2342}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE9A746-1AA4-3C8E-8BD0-25A35745BA18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,8 +1880,71 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19697701" y="2495550"/>
-          <a:ext cx="1473857" cy="2419459"/>
+          <a:off x="31706256" y="4259440"/>
+          <a:ext cx="578507" cy="644634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>29281</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>58915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>236313</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>347949</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矩形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E028DB-5F2E-688B-8E48-0E7A1DAB87CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32719081" y="4288015"/>
+          <a:ext cx="578507" cy="641459"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1405,6 +1972,1183 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>111831</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>58915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>318863</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>351124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矩形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BFFF5D-FBA7-A99B-967C-FF267CCF7407}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33173106" y="4288015"/>
+          <a:ext cx="578507" cy="644634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>173045</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>64985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>5646</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>345723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7651CF44-3BE4-0084-B873-3159137DBEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27662195" y="4294085"/>
+          <a:ext cx="575551" cy="633163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>238831</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>74388</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>319374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="矩形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62025B20-A455-493B-53DB-848FCDD9B55A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41472556" y="7783690"/>
+          <a:ext cx="578507" cy="641459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>30170</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>234246</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>326673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="矩形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F30BA54-3E4C-D2D2-BA0D-00506BBD364F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30862595" y="750785"/>
+          <a:ext cx="575551" cy="633163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>64206</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>58915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>271238</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>351124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矩形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E11DA0-AC7F-4341-8FEA-391C01884CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30153681" y="4288015"/>
+          <a:ext cx="578507" cy="644634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>106370</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>64985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>310446</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>345723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="矩形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9598715F-576A-F23D-B703-656232CC6006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28338470" y="769835"/>
+          <a:ext cx="575551" cy="633163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>80081</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>290288</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>347949</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB4C13FA-285B-A4D6-55EC-EAF0B7D6282C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29302781" y="1830565"/>
+          <a:ext cx="584857" cy="650984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>73731</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>283938</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>351124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="矩形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A97B36F-BE39-D4E8-A46D-E9471B263A3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33042931" y="1474965"/>
+          <a:ext cx="584857" cy="654159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>80081</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>39865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>290288</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>341599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="矩形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9EF3BE-CD07-142A-5BF4-69C0648D5A7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34547881" y="1462265"/>
+          <a:ext cx="584857" cy="657334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>117079</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>244723</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>326446</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矩形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8723B0E3-36F8-5188-9C39-2E14B4391D09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19540608" y="7911167"/>
+          <a:ext cx="874703" cy="1379985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>365342</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>198701</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>346728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矩形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D30BE1E-9ADD-DDD5-1783-710300C32EEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796342" y="9901904"/>
+          <a:ext cx="580705" cy="643901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>64939</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>271971</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="矩形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35B152F-4493-D06A-1C4C-899D8ACC072B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20990631" y="9909231"/>
+          <a:ext cx="580705" cy="643901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>209680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>64985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>42281</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>345723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矩形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C8B353-6588-141D-938F-CC2879480DD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20388026" y="9912370"/>
+          <a:ext cx="579947" cy="632430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>246314</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>64985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>78915</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>345723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B465DAA-6132-77C4-2D4A-2DAF248C8EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17808949" y="9912370"/>
+          <a:ext cx="579947" cy="632430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>108900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>315931</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>346728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="矩形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB225F52-E18F-25FD-734D-F861CA73525E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21781938" y="6384981"/>
+          <a:ext cx="580705" cy="643901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>233458</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>39865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>66817</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>332074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矩形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B6DF1E-9E8D-F594-C2FF-2F8C45D6D206}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21159150" y="6370327"/>
+          <a:ext cx="580705" cy="643901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>14943</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>218096</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>317419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="矩形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F880E7D-409A-09E5-87B8-2C26F7AE2C4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20353619" y="5930709"/>
+          <a:ext cx="572948" cy="639592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>79593</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>286625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>346728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{511954D0-40A8-D985-FB55-B7DB8D5A1DF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19884266" y="6384981"/>
+          <a:ext cx="580705" cy="643901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>211477</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>44836</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2362</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矩形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8553E0-C8F2-9A87-839C-128BABA6B579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19268804" y="6392307"/>
+          <a:ext cx="580705" cy="643901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1710,15 +3454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BC89EE-B72D-4DA9-B9D4-B89B39D62715}">
-  <dimension ref="A1:BN28"/>
+  <dimension ref="A1:CV31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="AU9" sqref="AU9"/>
+    <sheetView tabSelected="1" topLeftCell="V13" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="BD20" sqref="BD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1783,117 +3527,239 @@
       <c r="BL1" s="1"/>
       <c r="BM1" s="1"/>
       <c r="BN1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
     </row>
-    <row r="2" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="AA2" s="4"/>
-      <c r="AF2" s="7"/>
+      <c r="AF2" s="6"/>
       <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AL2" s="2"/>
+      <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
-      <c r="AO2" s="2"/>
+      <c r="AO2" s="1"/>
       <c r="AP2" s="2"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
       <c r="BH2" s="2"/>
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2"/>
-      <c r="BK2" s="1"/>
+      <c r="BK2" s="2"/>
       <c r="BL2" s="2"/>
       <c r="BM2" s="2"/>
-      <c r="BN2" s="7"/>
+      <c r="BN2" s="6"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2"/>
+      <c r="CM2" s="2"/>
+      <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
+      <c r="CS2" s="2"/>
+      <c r="CT2" s="2"/>
+      <c r="CU2" s="2"/>
+      <c r="CV2" s="6"/>
     </row>
-    <row r="3" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="AA3" s="4"/>
-      <c r="AF3" s="7"/>
+      <c r="AF3" s="6"/>
       <c r="AI3" s="1"/>
+      <c r="AJ3" s="2"/>
       <c r="AK3" s="1"/>
-      <c r="AL3" s="2"/>
+      <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="1"/>
       <c r="AP3" s="2"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
-      <c r="AT3" s="1"/>
+      <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
-      <c r="AV3" s="1"/>
+      <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
-      <c r="AX3" s="1"/>
+      <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
-      <c r="AZ3" s="1"/>
+      <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="1"/>
+      <c r="BK3" s="2"/>
       <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="7"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="6"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CF3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CH3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="2"/>
+      <c r="CL3" s="2"/>
+      <c r="CM3" s="2"/>
+      <c r="CN3" s="2"/>
+      <c r="CO3" s="2"/>
+      <c r="CP3" s="2"/>
+      <c r="CQ3" s="2"/>
+      <c r="CR3" s="2"/>
+      <c r="CS3" s="2"/>
+      <c r="CT3" s="2"/>
+      <c r="CU3" s="2"/>
+      <c r="CV3" s="6"/>
     </row>
-    <row r="4" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="AA4" s="4"/>
-      <c r="AF4" s="7"/>
+      <c r="AF4" s="6"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
+      <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="1"/>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
-      <c r="BL4" s="2"/>
-      <c r="BM4" s="2"/>
-      <c r="BN4" s="7"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="6"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
+      <c r="CV4" s="6"/>
     </row>
-    <row r="5" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="J5" s="2"/>
       <c r="K5" s="1"/>
@@ -1911,41 +3777,72 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="AA5" s="4"/>
-      <c r="AF5" s="7"/>
+      <c r="AF5" s="6"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
+      <c r="AQ5" s="1"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
+      <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
-      <c r="AW5" s="2"/>
+      <c r="AW5" s="1"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2"/>
       <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
+      <c r="BC5" s="4"/>
       <c r="BD5" s="2"/>
-      <c r="BE5" s="1"/>
+      <c r="BE5" s="2"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
       <c r="BH5" s="2"/>
       <c r="BI5" s="2"/>
       <c r="BJ5" s="2"/>
-      <c r="BK5" s="1"/>
+      <c r="BK5" s="2"/>
       <c r="BL5" s="2"/>
       <c r="BM5" s="2"/>
-      <c r="BN5" s="7"/>
+      <c r="BN5" s="6"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CP5" s="2"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="2"/>
+      <c r="CT5" s="2"/>
+      <c r="CU5" s="2"/>
+      <c r="CV5" s="6"/>
     </row>
-    <row r="6" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1954,7 +3851,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="4"/>
       <c r="AA6" s="4"/>
-      <c r="AF6" s="7"/>
+      <c r="AF6" s="6"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
@@ -1963,32 +3860,63 @@
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="1"/>
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="1"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
       <c r="BH6" s="2"/>
       <c r="BI6" s="2"/>
       <c r="BJ6" s="2"/>
-      <c r="BK6" s="1"/>
+      <c r="BK6" s="2"/>
       <c r="BL6" s="2"/>
       <c r="BM6" s="2"/>
-      <c r="BN6" s="7"/>
+      <c r="BN6" s="6"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="2"/>
+      <c r="BV6" s="2"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="11"/>
+      <c r="CB6" s="11"/>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="3"/>
+      <c r="CJ6" s="1"/>
+      <c r="CK6" s="11"/>
+      <c r="CL6" s="11"/>
+      <c r="CM6" s="1"/>
+      <c r="CN6" s="1"/>
+      <c r="CP6" s="11"/>
+      <c r="CQ6" s="1"/>
+      <c r="CR6" s="1"/>
+      <c r="CS6" s="2"/>
+      <c r="CT6" s="11"/>
+      <c r="CU6" s="11"/>
+      <c r="CV6" s="6"/>
     </row>
-    <row r="7" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -1998,38 +3926,72 @@
       <c r="K7" s="1"/>
       <c r="L7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AF7" s="7"/>
+      <c r="AF7" s="6"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
+      <c r="AS7" s="1"/>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
       <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
-      <c r="BI7" s="2"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
       <c r="BJ7" s="2"/>
-      <c r="BK7" s="1"/>
+      <c r="BK7" s="2"/>
       <c r="BL7" s="2"/>
       <c r="BM7" s="2"/>
-      <c r="BN7" s="7"/>
+      <c r="BN7" s="6"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="2"/>
+      <c r="BU7" s="2"/>
+      <c r="BV7" s="2"/>
+      <c r="BW7" s="2"/>
+      <c r="BX7" s="4"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="2"/>
+      <c r="CB7" s="2"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+      <c r="CF7" s="2"/>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="3"/>
+      <c r="CM7" s="3"/>
+      <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="1"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1"/>
+      <c r="CS7" s="1"/>
+      <c r="CT7" s="2"/>
+      <c r="CU7" s="2"/>
+      <c r="CV7" s="6"/>
     </row>
-    <row r="8" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2058,54 +4020,89 @@
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
+      <c r="BC8" s="4"/>
       <c r="BD8" s="2"/>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
       <c r="BH8" s="2"/>
-      <c r="BI8" s="2"/>
-      <c r="BJ8" s="2"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="2"/>
       <c r="BM8" s="2"/>
       <c r="BN8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="2"/>
+      <c r="BV8" s="2"/>
+      <c r="BW8" s="2"/>
+      <c r="BX8" s="4"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8" s="2"/>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="2"/>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8" s="2"/>
+      <c r="CM8" s="2"/>
+      <c r="CN8" s="2"/>
+      <c r="CO8" s="2"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="2"/>
+      <c r="CU8" s="2"/>
+      <c r="CV8" s="1"/>
     </row>
-    <row r="9" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="L9" s="4"/>
-      <c r="AE9" s="9"/>
+      <c r="AE9" s="8"/>
       <c r="AF9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AM9" s="2"/>
-      <c r="AN9" s="3"/>
+      <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
-      <c r="AQ9" s="4"/>
+      <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
-      <c r="AS9" s="3"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
       <c r="AZ9" s="2"/>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
+      <c r="BC9" s="4"/>
       <c r="BD9" s="2"/>
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
@@ -2113,12 +4110,41 @@
       <c r="BH9" s="2"/>
       <c r="BI9" s="2"/>
       <c r="BJ9" s="2"/>
-      <c r="BK9" s="1"/>
+      <c r="BK9" s="2"/>
       <c r="BL9" s="2"/>
-      <c r="BM9" s="8"/>
+      <c r="BM9" s="7"/>
       <c r="BN9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="4"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+      <c r="CF9" s="2"/>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="2"/>
+      <c r="CI9" s="2"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="2"/>
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="2"/>
+      <c r="CO9" s="2"/>
+      <c r="CP9" s="2"/>
+      <c r="CQ9" s="3"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="7"/>
+      <c r="CV9" s="1"/>
     </row>
-    <row r="10" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2134,18 +4160,18 @@
       <c r="AN10" s="3"/>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="2"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
       <c r="AS10" s="2"/>
       <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="1"/>
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
+      <c r="BB10" s="1"/>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
       <c r="BE10" s="2"/>
@@ -2154,12 +4180,42 @@
       <c r="BH10" s="2"/>
       <c r="BI10" s="2"/>
       <c r="BJ10" s="2"/>
-      <c r="BK10" s="1"/>
+      <c r="BK10" s="2"/>
       <c r="BL10" s="2"/>
-      <c r="BM10" s="2"/>
+      <c r="BM10" s="1"/>
       <c r="BN10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="2"/>
+      <c r="BS10" s="2"/>
+      <c r="BU10" s="2"/>
+      <c r="BV10" s="1"/>
+      <c r="BW10" s="1"/>
+      <c r="BX10" s="4"/>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="3"/>
+      <c r="CA10" s="2"/>
+      <c r="CB10" s="2"/>
+      <c r="CC10" s="2"/>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="2"/>
+      <c r="CF10" s="3"/>
+      <c r="CG10" s="3"/>
+      <c r="CH10" s="2"/>
+      <c r="CI10" s="2"/>
+      <c r="CJ10" s="2"/>
+      <c r="CK10" s="2"/>
+      <c r="CL10" s="2"/>
+      <c r="CM10" s="2"/>
+      <c r="CO10" s="2"/>
+      <c r="CP10" s="2"/>
+      <c r="CQ10" s="2"/>
+      <c r="CR10" s="3"/>
+      <c r="CS10" s="1"/>
+      <c r="CT10" s="1"/>
+      <c r="CU10" s="10"/>
+      <c r="CV10" s="1"/>
     </row>
-    <row r="11" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2177,16 +4233,17 @@
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="1"/>
       <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
+      <c r="AW11" s="4"/>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
+      <c r="BA11" s="1"/>
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
@@ -2196,12 +4253,43 @@
       <c r="BH11" s="2"/>
       <c r="BI11" s="2"/>
       <c r="BJ11" s="2"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="2"/>
-      <c r="BM11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="9"/>
+      <c r="BM11" s="1"/>
       <c r="BN11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="2"/>
+      <c r="BS11" s="2"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="4"/>
+      <c r="BY11" s="3"/>
+      <c r="BZ11" s="2"/>
+      <c r="CA11" s="2"/>
+      <c r="CB11" s="2"/>
+      <c r="CC11" s="2"/>
+      <c r="CD11" s="2"/>
+      <c r="CE11" s="2"/>
+      <c r="CF11" s="4"/>
+      <c r="CG11" s="2"/>
+      <c r="CH11" s="2"/>
+      <c r="CI11" s="2"/>
+      <c r="CJ11" s="3"/>
+      <c r="CK11" s="3"/>
+      <c r="CL11" s="2"/>
+      <c r="CM11" s="2"/>
+      <c r="CN11" s="4"/>
+      <c r="CO11" s="2"/>
+      <c r="CP11" s="2"/>
+      <c r="CQ11" s="2"/>
+      <c r="CR11" s="2"/>
+      <c r="CS11" s="3"/>
+      <c r="CT11" s="3"/>
+      <c r="CU11" s="3"/>
+      <c r="CV11" s="1"/>
     </row>
-    <row r="12" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="4"/>
@@ -2230,31 +4318,61 @@
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
-      <c r="AQ12" s="4"/>
+      <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
       <c r="AU12" s="4"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="4"/>
       <c r="AX12" s="2"/>
       <c r="AY12" s="2"/>
-      <c r="AZ12" s="2"/>
+      <c r="AZ12" s="1"/>
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
-      <c r="BD12" s="2"/>
-      <c r="BE12" s="2"/>
+      <c r="BD12" s="1"/>
       <c r="BF12" s="2"/>
-      <c r="BG12" s="2"/>
-      <c r="BH12" s="2"/>
-      <c r="BI12" s="2"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
       <c r="BJ12" s="2"/>
       <c r="BK12" s="1"/>
-      <c r="BL12" s="2"/>
-      <c r="BM12" s="2"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="1"/>
       <c r="BN12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="2"/>
+      <c r="BV12" s="2"/>
+      <c r="BW12" s="2"/>
+      <c r="BX12" s="2"/>
+      <c r="BY12" s="2"/>
+      <c r="BZ12" s="2"/>
+      <c r="CA12" s="2"/>
+      <c r="CB12" s="2"/>
+      <c r="CC12" s="2"/>
+      <c r="CD12" s="2"/>
+      <c r="CE12" s="2"/>
+      <c r="CF12" s="4"/>
+      <c r="CG12" s="2"/>
+      <c r="CH12" s="2"/>
+      <c r="CI12" s="2"/>
+      <c r="CJ12" s="4"/>
+      <c r="CL12" s="2"/>
+      <c r="CM12" s="2"/>
+      <c r="CN12" s="4"/>
+      <c r="CO12" s="3"/>
+      <c r="CP12" s="2"/>
+      <c r="CQ12" s="2"/>
+      <c r="CR12" s="2"/>
+      <c r="CS12" s="2"/>
+      <c r="CT12" s="7"/>
+      <c r="CU12" s="2"/>
+      <c r="CV12" s="1"/>
     </row>
-    <row r="13" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2283,31 +4401,62 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
-      <c r="AQ13" s="4"/>
+      <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
       <c r="AU13" s="4"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="4"/>
       <c r="AX13" s="2"/>
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="2"/>
-      <c r="BE13" s="2"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
       <c r="BF13" s="2"/>
-      <c r="BG13" s="2"/>
-      <c r="BH13" s="2"/>
-      <c r="BI13" s="2"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
       <c r="BJ13" s="2"/>
       <c r="BK13" s="1"/>
-      <c r="BL13" s="2"/>
-      <c r="BM13" s="2"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
       <c r="BN13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="2"/>
+      <c r="BV13" s="2"/>
+      <c r="BW13" s="2"/>
+      <c r="BX13" s="2"/>
+      <c r="BY13" s="2"/>
+      <c r="BZ13" s="2"/>
+      <c r="CA13" s="2"/>
+      <c r="CB13" s="3"/>
+      <c r="CC13" s="3"/>
+      <c r="CD13" s="2"/>
+      <c r="CE13" s="2"/>
+      <c r="CF13" s="4"/>
+      <c r="CG13" s="2"/>
+      <c r="CH13" s="2"/>
+      <c r="CI13" s="2"/>
+      <c r="CJ13" s="4"/>
+      <c r="CK13" s="2"/>
+      <c r="CL13" s="2"/>
+      <c r="CM13" s="2"/>
+      <c r="CN13" s="4"/>
+      <c r="CO13" s="3"/>
+      <c r="CP13" s="3"/>
+      <c r="CQ13" s="2"/>
+      <c r="CR13" s="2"/>
+      <c r="CS13" s="2"/>
+      <c r="CT13" s="2"/>
+      <c r="CU13" s="2"/>
+      <c r="CV13" s="1"/>
     </row>
-    <row r="14" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2337,31 +4486,61 @@
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
-      <c r="AQ14" s="4"/>
+      <c r="AQ14" s="1"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
       <c r="AU14" s="4"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="1"/>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
       <c r="BF14" s="2"/>
-      <c r="BG14" s="2"/>
-      <c r="BH14" s="2"/>
-      <c r="BI14" s="2"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
       <c r="BJ14" s="2"/>
       <c r="BK14" s="1"/>
-      <c r="BL14" s="2"/>
-      <c r="BM14" s="9"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
       <c r="BN14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="2"/>
+      <c r="BV14" s="2"/>
+      <c r="BW14" s="2"/>
+      <c r="BX14" s="2"/>
+      <c r="BY14" s="2"/>
+      <c r="BZ14" s="2"/>
+      <c r="CA14" s="3"/>
+      <c r="CB14" s="3"/>
+      <c r="CC14" s="3"/>
+      <c r="CD14" s="2"/>
+      <c r="CE14" s="2"/>
+      <c r="CF14" s="4"/>
+      <c r="CG14" s="2"/>
+      <c r="CH14" s="2"/>
+      <c r="CI14" s="2"/>
+      <c r="CJ14" s="4"/>
+      <c r="CK14" s="2"/>
+      <c r="CL14" s="2"/>
+      <c r="CM14" s="2"/>
+      <c r="CN14" s="4"/>
+      <c r="CO14" s="3"/>
+      <c r="CP14" s="3"/>
+      <c r="CQ14" s="3"/>
+      <c r="CR14" s="2"/>
+      <c r="CS14" s="2"/>
+      <c r="CT14" s="2"/>
+      <c r="CV14" s="1"/>
     </row>
-    <row r="15" spans="1:66" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2428,8 +4607,40 @@
       <c r="BL15" s="1"/>
       <c r="BM15" s="1"/>
       <c r="BN15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="1"/>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="1"/>
+      <c r="CJ15" s="1"/>
+      <c r="CK15" s="1"/>
+      <c r="CL15" s="1"/>
+      <c r="CM15" s="1"/>
+      <c r="CN15" s="1"/>
+      <c r="CO15" s="1"/>
+      <c r="CP15" s="1"/>
+      <c r="CQ15" s="1"/>
+      <c r="CR15" s="1"/>
+      <c r="CS15" s="1"/>
+      <c r="CT15" s="1"/>
+      <c r="CU15" s="1"/>
+      <c r="CV15" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17">
         <v>1</v>
@@ -2437,20 +4648,53 @@
       <c r="C17" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="8"/>
       <c r="F17">
         <v>-5</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>2</v>
@@ -2458,8 +4702,41 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="11"/>
+      <c r="BO18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19">
         <v>3</v>
@@ -2467,52 +4744,476 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="11"/>
+      <c r="BO19" s="6"/>
     </row>
-    <row r="20" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>-4</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="6"/>
     </row>
-    <row r="21" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="12"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="6"/>
     </row>
-    <row r="22" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+    <row r="22" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="AI22" s="1"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="4"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
+      <c r="BM22" s="2"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="6"/>
     </row>
-    <row r="23" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
+    <row r="23" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="12"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="4"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+    <row r="24" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
+    <row r="25" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="12"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="2"/>
+      <c r="AS25" s="4"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="4"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+    <row r="26" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="4"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+    <row r="27" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="2"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="4"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+    <row r="28" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="4"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="3"/>
+      <c r="BO28" s="1"/>
+    </row>
+    <row r="29" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="3"/>
+      <c r="BO29" s="1"/>
+    </row>
+    <row r="30" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="3"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3"/>
+      <c r="BO30" s="1"/>
+    </row>
+    <row r="31" spans="1:67" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
